--- a/data/trans_orig/P23_2_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_2_2015-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64EB0D23-AC0E-4246-B2CA-0583C52BFCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A89A47-820A-478B-9A0F-18A5BCB63E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{178C94A8-12E6-4CF6-8232-576FFC8B9569}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCFF1E83-CE64-48ED-A864-0D24E0E4A668}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="176">
   <si>
     <t>Población según consumo de Hachís/Marihuana en 2015 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -93,406 +93,418 @@
     <t>92,31%</t>
   </si>
   <si>
-    <t>90,09%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>No fuma pero ha fumado</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>No fuma pero ha fumado</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -964,7 +976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939A2151-7A52-4A0F-8056-22D806CE3DAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92F0BD-116F-45AB-B17A-0AFEB20A2966}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1328,7 +1340,7 @@
         <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,13 +1355,13 @@
         <v>737606</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>881</v>
@@ -1358,13 +1370,13 @@
         <v>982356</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>1626</v>
@@ -1373,18 +1385,18 @@
         <v>1719962</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1432,7 +1444,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1459,13 @@
         <v>1844635</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>1777</v>
@@ -1462,13 +1474,13 @@
         <v>1854793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>3515</v>
@@ -1477,13 +1489,13 @@
         <v>3699428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1498,13 +1510,13 @@
         <v>73628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -1513,13 +1525,13 @@
         <v>33902</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>102</v>
@@ -1528,13 +1540,13 @@
         <v>107530</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1549,13 +1561,13 @@
         <v>35339</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -1564,13 +1576,13 @@
         <v>16580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -1579,13 +1591,13 @@
         <v>51918</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,13 +1612,13 @@
         <v>55072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -1615,13 +1627,13 @@
         <v>7621</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -1630,13 +1642,13 @@
         <v>62694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1651,13 +1663,13 @@
         <v>2008674</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>1835</v>
@@ -1666,13 +1678,13 @@
         <v>1912896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>3727</v>
@@ -1681,18 +1693,18 @@
         <v>3921570</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1710,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1740,7 +1752,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,13 +1767,13 @@
         <v>491810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>485</v>
@@ -1770,13 +1782,13 @@
         <v>506204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>938</v>
@@ -1785,13 +1797,13 @@
         <v>998015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,13 +1818,13 @@
         <v>26593</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -1821,13 +1833,13 @@
         <v>14375</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -1836,13 +1848,13 @@
         <v>40968</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,13 +1869,13 @@
         <v>10437</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -1872,13 +1884,13 @@
         <v>4888</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -1887,13 +1899,13 @@
         <v>15325</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,13 +1920,13 @@
         <v>1874</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -1923,13 +1935,13 @@
         <v>4532</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1938,13 +1950,13 @@
         <v>6406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,13 +1971,13 @@
         <v>530713</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>508</v>
@@ -1974,13 +1986,13 @@
         <v>530000</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>996</v>
@@ -1989,13 +2001,13 @@
         <v>1060714</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2030,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2033,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2048,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2075,13 @@
         <v>3017335</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>3131</v>
@@ -2078,13 +2090,13 @@
         <v>3331534</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>6012</v>
@@ -2093,13 +2105,13 @@
         <v>6348869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2126,13 @@
         <v>129005</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -2129,13 +2141,13 @@
         <v>55394</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="M24" s="7">
         <v>174</v>
@@ -2144,13 +2156,13 @@
         <v>184398</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2177,13 @@
         <v>53302</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2180,13 +2192,13 @@
         <v>22453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -2195,13 +2207,13 @@
         <v>75755</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2228,13 @@
         <v>77352</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2231,13 +2243,13 @@
         <v>15872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -2246,13 +2258,13 @@
         <v>93224</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2279,13 @@
         <v>3276994</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>3224</v>
@@ -2282,13 +2294,13 @@
         <v>3425252</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>6349</v>
@@ -2297,18 +2309,18 @@
         <v>6702246</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2327,7 +2339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D8D11F-5395-4E5E-AFAE-37C4ED361B4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF58904-5283-4B60-828F-A21F08D3143E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2344,7 +2356,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2451,13 +2463,13 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7">
         <v>1427</v>
@@ -2466,13 +2478,13 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7">
         <v>2118</v>
@@ -2481,13 +2493,13 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,7 +2520,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2523,7 +2535,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2538,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2574,7 +2586,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2589,7 +2601,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2625,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2640,7 +2652,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2676,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2691,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2718,13 @@
         <v>541634</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>1427</v>
@@ -2721,13 +2733,13 @@
         <v>835953</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>2118</v>
@@ -2736,18 +2748,18 @@
         <v>1377586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2759,28 +2771,28 @@
         <v>2162022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>2921</v>
       </c>
       <c r="I10" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>4913</v>
@@ -2789,13 +2801,13 @@
         <v>4411543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2846,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,7 +2894,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2897,7 +2909,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2945,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2948,7 +2960,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,7 +2996,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2999,7 +3011,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,28 +3026,28 @@
         <v>2162022</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>2921</v>
       </c>
       <c r="I15" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>4913</v>
@@ -3044,18 +3056,18 @@
         <v>4411543</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3067,13 +3079,13 @@
         <v>673039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7">
         <v>1004</v>
@@ -3082,13 +3094,13 @@
         <v>713886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>1685</v>
@@ -3097,13 +3109,13 @@
         <v>1386926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3136,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3139,7 +3151,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3154,7 +3166,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3190,7 +3202,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3205,7 +3217,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,7 +3238,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3241,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3256,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3292,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3307,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3334,13 @@
         <v>673039</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>1004</v>
@@ -3337,13 +3349,13 @@
         <v>713886</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>1685</v>
@@ -3352,13 +3364,13 @@
         <v>1386926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,16 +3384,16 @@
         <v>3364</v>
       </c>
       <c r="D22" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>5352</v>
@@ -3390,28 +3402,28 @@
         <v>3799360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M22" s="7">
         <v>8716</v>
       </c>
       <c r="N22" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3444,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3447,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3462,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,7 +3495,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3498,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3513,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3549,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3564,7 +3576,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,7 +3597,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3600,7 +3612,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3615,7 +3627,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,16 +3639,16 @@
         <v>3364</v>
       </c>
       <c r="D27" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>5352</v>
@@ -3645,33 +3657,33 @@
         <v>3799360</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>8716</v>
       </c>
       <c r="N27" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_2_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_2_2015-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A89A47-820A-478B-9A0F-18A5BCB63E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABDF64F1-919F-4A90-B1C3-1ED4EAEDE53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCFF1E83-CE64-48ED-A864-0D24E0E4A668}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D402B452-131A-4191-88FF-234997FF60B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="176">
-  <si>
-    <t>Población según consumo de Hachís/Marihuana en 2015 (Tasa respuesta: 97,08%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="177">
+  <si>
+    <t>Población según consumo de Hachís/Marihuana en 2016 (Tasa respuesta: 97,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -93,28 +93,28 @@
     <t>92,31%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>98,8%</t>
   </si>
   <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -123,10 +123,10 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
   </si>
   <si>
     <t>0,72%</t>
@@ -135,360 +135,363 @@
     <t>0,31%</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
     <t>0,46%</t>
   </si>
   <si>
@@ -501,10 +504,10 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -976,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF92F0BD-116F-45AB-B17A-0AFEB20A2966}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96173CBB-C812-4D58-84D2-1648CACBBAAB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1564,10 +1567,10 @@
         <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -1576,13 +1579,13 @@
         <v>16580</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -1591,13 +1594,13 @@
         <v>51918</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,10 +1618,10 @@
         <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -1627,13 +1630,13 @@
         <v>7621</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>60</v>
@@ -1642,10 +1645,10 @@
         <v>62694</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>89</v>
@@ -1752,7 +1755,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1770,13 @@
         <v>491810</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>485</v>
@@ -1782,13 +1785,13 @@
         <v>506204</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>938</v>
@@ -1797,13 +1800,13 @@
         <v>998015</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1821,13 @@
         <v>26593</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -1833,13 +1836,13 @@
         <v>14375</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -1848,13 +1851,13 @@
         <v>40968</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,13 +1872,13 @@
         <v>10437</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -1884,13 +1887,13 @@
         <v>4888</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -1899,7 +1902,7 @@
         <v>15325</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>116</v>
@@ -1935,13 +1938,13 @@
         <v>4532</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1950,13 +1953,13 @@
         <v>6406</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2030,37 +2033,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,13 +2078,13 @@
         <v>3017335</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H23" s="7">
         <v>3131</v>
@@ -2090,13 +2093,13 @@
         <v>3331534</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>6012</v>
@@ -2105,13 +2108,13 @@
         <v>6348869</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2129,13 @@
         <v>129005</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -2144,10 +2147,10 @@
         <v>137</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="M24" s="7">
         <v>174</v>
@@ -2198,7 +2201,7 @@
         <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -2210,10 +2213,10 @@
         <v>145</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2231,13 @@
         <v>77352</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -2243,13 +2246,13 @@
         <v>15872</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>89</v>
@@ -2258,13 +2261,13 @@
         <v>93224</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2323,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF58904-5283-4B60-828F-A21F08D3143E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E80B31E-197C-48FF-A4FA-ED343D220E9D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2356,7 +2359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2463,10 +2466,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>54</v>
@@ -2478,10 +2481,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>54</v>
@@ -2493,10 +2496,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>54</v>
@@ -2520,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2535,7 +2538,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2550,7 +2553,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2586,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2601,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2637,7 +2640,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2652,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2688,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2703,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,10 +2774,10 @@
         <v>2162022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>54</v>
@@ -2786,10 +2789,10 @@
         <v>2249521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>54</v>
@@ -2801,10 +2804,10 @@
         <v>4411543</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>54</v>
@@ -2843,7 +2846,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2858,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2909,7 +2912,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,7 +2948,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2960,7 +2963,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3011,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,10 +3082,10 @@
         <v>673039</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>54</v>
@@ -3094,10 +3097,10 @@
         <v>713886</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>54</v>
@@ -3109,10 +3112,10 @@
         <v>1386926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>54</v>
@@ -3136,7 +3139,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3151,7 +3154,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3166,7 +3169,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,7 +3190,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3202,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3217,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3253,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3268,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3304,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3319,7 +3322,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,10 +3390,10 @@
         <v>3376694</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>54</v>
@@ -3402,10 +3405,10 @@
         <v>3799360</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>54</v>
@@ -3417,10 +3420,10 @@
         <v>7176054</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>54</v>
@@ -3444,7 +3447,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3459,7 +3462,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3474,7 +3477,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,7 +3498,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3510,7 +3513,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3525,7 +3528,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3561,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3576,7 +3579,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3600,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3612,7 +3615,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3627,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3686,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
